--- a/data/legal_panel_for_government/rm6360/Supplier rate cards (lots 1, 2, 3, 5).xlsx
+++ b/data/legal_panel_for_government/rm6360/Supplier rate cards (lots 1, 2, 3, 5).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothy.south/Documents/DFP/Test Data/LPG/RM6360/Supplier spreadsheet templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothy.south/Code/crown-marketplace-runner/code/testing/crown-marketplace-feature-tests/data/legal_panel_for_government/rm6360/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F6037-A1BA-5D49-9166-F9DBE9D0540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3025E5-E4A5-9F4F-9FD7-59FFA463FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{E860BEE3-C72A-DC41-BF77-686CCDDC015B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Lot 3" sheetId="12" r:id="rId3"/>
     <sheet name="Lot 5" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +26,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
   <si>
     <t>Supplier name</t>
   </si>
@@ -79,6 +82,9 @@
   <si>
     <t>Paralegal,
 Legal Assistant</t>
+  </si>
+  <si>
+    <t>Legal Project Manager</t>
   </si>
   <si>
     <t>ARMSTRONG GROUP</t>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3E4593-4CC0-5A4A-A15A-2B6D4C3868F4}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -634,9 +640,10 @@
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -662,8 +669,11 @@
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,10 +701,13 @@
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>420622946</v>
@@ -720,10 +733,13 @@
       <c r="I3" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>768473377</v>
@@ -749,10 +765,13 @@
       <c r="I4" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>539376601</v>
@@ -778,10 +797,13 @@
       <c r="I5" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>389558867</v>
@@ -807,10 +829,13 @@
       <c r="I6" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>930776253</v>
@@ -836,10 +861,13 @@
       <c r="I7" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>176309695</v>
@@ -865,10 +893,13 @@
       <c r="I8" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>264633778</v>
@@ -894,10 +925,13 @@
       <c r="I9" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>579094427</v>
@@ -923,10 +957,13 @@
       <c r="I10" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>605268818</v>
@@ -952,10 +989,13 @@
       <c r="I11" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>888217734</v>
@@ -981,13 +1021,16 @@
       <c r="I12" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>240</v>
@@ -1010,10 +1053,13 @@
       <c r="I13" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>755288370</v>
@@ -1039,10 +1085,13 @@
       <c r="I14" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>651508425</v>
@@ -1068,10 +1117,13 @@
       <c r="I15" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>431360846</v>
@@ -1097,10 +1149,13 @@
       <c r="I16" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>240183962</v>
@@ -1126,13 +1181,16 @@
       <c r="I17" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>280</v>
@@ -1155,10 +1213,13 @@
       <c r="I18" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>462797309</v>
@@ -1184,10 +1245,13 @@
       <c r="I19" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>726532920</v>
@@ -1213,10 +1277,13 @@
       <c r="I20" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>290655737</v>
@@ -1242,10 +1309,13 @@
       <c r="I21" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>740187658</v>
@@ -1271,13 +1341,16 @@
       <c r="I22" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7">
         <v>280</v>
@@ -1300,8 +1373,11 @@
       <c r="I23" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
@@ -1312,7 +1388,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -1323,7 +1399,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -1334,7 +1410,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -1345,7 +1421,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -1356,7 +1432,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -1367,7 +1443,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -1378,7 +1454,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -1389,7 +1465,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -1760,13 +1836,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9422D05C-1483-7E4B-A424-73B9FD9DB171}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,9 +1850,10 @@
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1802,8 +1879,11 @@
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,10 +1911,13 @@
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>768473377</v>
@@ -1860,13 +1943,16 @@
       <c r="I3" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7">
         <v>240</v>
@@ -1889,10 +1975,13 @@
       <c r="I4" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>115865291</v>
@@ -1918,10 +2007,13 @@
       <c r="I5" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>787656425</v>
@@ -1947,10 +2039,13 @@
       <c r="I6" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>264633778</v>
@@ -1976,10 +2071,13 @@
       <c r="I7" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>682296284</v>
@@ -2005,13 +2103,16 @@
       <c r="I8" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>200</v>
@@ -2034,13 +2135,16 @@
       <c r="I9" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>200</v>
@@ -2063,10 +2167,13 @@
       <c r="I10" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>755288370</v>
@@ -2092,10 +2199,13 @@
       <c r="I11" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>651508425</v>
@@ -2121,10 +2231,13 @@
       <c r="I12" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>431360846</v>
@@ -2150,10 +2263,13 @@
       <c r="I13" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>240183962</v>
@@ -2179,13 +2295,16 @@
       <c r="I14" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>240</v>
@@ -2208,10 +2327,13 @@
       <c r="I15" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>921043015</v>
@@ -2237,13 +2359,16 @@
       <c r="I16" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>200</v>
@@ -2266,10 +2391,13 @@
       <c r="I17" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>747858386</v>
@@ -2295,10 +2423,13 @@
       <c r="I18" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>726532920</v>
@@ -2324,13 +2455,16 @@
       <c r="I19" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>240</v>
@@ -2353,10 +2487,13 @@
       <c r="I20" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>706028238</v>
@@ -2382,10 +2519,13 @@
       <c r="I21" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>290655737</v>
@@ -2411,10 +2551,13 @@
       <c r="I22" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>740187658</v>
@@ -2440,13 +2583,16 @@
       <c r="I23" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7">
         <v>200</v>
@@ -2469,8 +2615,11 @@
       <c r="I24" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -2481,7 +2630,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -2492,7 +2641,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -2503,7 +2652,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -2514,7 +2663,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -2525,7 +2674,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -2536,7 +2685,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -2547,7 +2696,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -2918,13 +3067,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBB405-AF33-B748-8EC3-CBFE22AA2224}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:I24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2932,9 +3081,10 @@
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -2960,8 +3110,11 @@
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,10 +3142,13 @@
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>420622946</v>
@@ -3018,10 +3174,13 @@
       <c r="I3" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>768473377</v>
@@ -3047,10 +3206,13 @@
       <c r="I4" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>787656425</v>
@@ -3076,10 +3238,13 @@
       <c r="I5" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>579094427</v>
@@ -3105,10 +3270,13 @@
       <c r="I6" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>711246990</v>
@@ -3134,10 +3302,13 @@
       <c r="I7" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>605268818</v>
@@ -3163,10 +3334,13 @@
       <c r="I8" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>462869928</v>
@@ -3192,13 +3366,16 @@
       <c r="I9" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>200</v>
@@ -3221,10 +3398,13 @@
       <c r="I10" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>755288370</v>
@@ -3250,10 +3430,13 @@
       <c r="I11" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>846418549</v>
@@ -3279,10 +3462,13 @@
       <c r="I12" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>240183962</v>
@@ -3308,10 +3494,13 @@
       <c r="I13" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>950490781</v>
@@ -3337,10 +3526,13 @@
       <c r="I14" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>526865217</v>
@@ -3366,10 +3558,13 @@
       <c r="I15" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>462797309</v>
@@ -3395,10 +3590,13 @@
       <c r="I16" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>726532920</v>
@@ -3424,10 +3622,13 @@
       <c r="I17" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>554433536</v>
@@ -3453,10 +3654,13 @@
       <c r="I18" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <v>911485253</v>
@@ -3482,10 +3686,13 @@
       <c r="I19" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>290655737</v>
@@ -3511,10 +3718,13 @@
       <c r="I20" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>740187658</v>
@@ -3540,10 +3750,13 @@
       <c r="I21" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>801280101</v>
@@ -3569,10 +3782,13 @@
       <c r="I22" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1">
         <v>971002030</v>
@@ -3598,10 +3814,13 @@
       <c r="I23" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1">
         <v>326695810</v>
@@ -3627,8 +3846,11 @@
       <c r="I24" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -3639,7 +3861,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -3650,7 +3872,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -3661,7 +3883,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -3672,7 +3894,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -3683,7 +3905,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -3694,7 +3916,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -3705,7 +3927,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -4076,13 +4298,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F54DFA-B082-4843-8217-EF37625986E9}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:I23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4090,9 +4312,10 @@
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4118,8 +4341,11 @@
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4147,13 +4373,16 @@
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7">
         <v>280</v>
@@ -4176,10 +4405,13 @@
       <c r="I3" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>115865291</v>
@@ -4205,10 +4437,13 @@
       <c r="I4" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>787656425</v>
@@ -4234,10 +4469,13 @@
       <c r="I5" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>682296284</v>
@@ -4263,10 +4501,13 @@
       <c r="I6" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>711246990</v>
@@ -4292,13 +4533,16 @@
       <c r="I7" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>200</v>
@@ -4321,10 +4565,13 @@
       <c r="I8" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>462869928</v>
@@ -4350,10 +4597,13 @@
       <c r="I9" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>846418549</v>
@@ -4379,10 +4629,13 @@
       <c r="I10" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>950490781</v>
@@ -4408,10 +4661,13 @@
       <c r="I11" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>921043015</v>
@@ -4437,13 +4693,16 @@
       <c r="I12" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
@@ -4466,10 +4725,13 @@
       <c r="I13" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>526865217</v>
@@ -4495,10 +4757,13 @@
       <c r="I14" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>747858386</v>
@@ -4524,13 +4789,16 @@
       <c r="I15" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
         <v>280</v>
@@ -4553,10 +4821,13 @@
       <c r="I16" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>554433536</v>
@@ -4582,10 +4853,13 @@
       <c r="I17" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>911485253</v>
@@ -4611,10 +4885,13 @@
       <c r="I18" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>706028238</v>
@@ -4640,10 +4917,13 @@
       <c r="I19" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>290655737</v>
@@ -4669,10 +4949,13 @@
       <c r="I20" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>801280101</v>
@@ -4698,10 +4981,13 @@
       <c r="I21" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>971002030</v>
@@ -4727,10 +5013,13 @@
       <c r="I22" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>326695810</v>
@@ -4756,8 +5045,11 @@
       <c r="I23" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
@@ -4768,7 +5060,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -4779,7 +5071,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -4790,7 +5082,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -4801,7 +5093,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -4812,7 +5104,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -4823,7 +5115,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -4834,7 +5126,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
@@ -4845,7 +5137,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
